--- a/HLR and Testcase/hlr for performance glitch user.xlsx
+++ b/HLR and Testcase/hlr for performance glitch user.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\Assignment\HLR excel sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4E09C3-687C-4CDA-A3C4-644673E583B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25E6696-4619-4D61-848F-47FA25E3B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="146">
   <si>
     <t>functionality id</t>
   </si>
@@ -39,9 +39,6 @@
     <t>check login button</t>
   </si>
   <si>
-    <t>check menu button</t>
-  </si>
-  <si>
     <t>check about</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>while entering website link in addressbar website open properly.</t>
   </si>
   <si>
-    <t>while clicking on the menu button, it is working properly.</t>
-  </si>
-  <si>
     <t>same as 17 id</t>
   </si>
   <si>
@@ -211,13 +205,372 @@
   </si>
   <si>
     <t>while clicking on linkedin icon, it its working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Functionality ID</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>check website Url</t>
+  </si>
+  <si>
+    <t>internet and browser must be in the working condition</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>To open the website properly</t>
+  </si>
+  <si>
+    <t>as per the expected result</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>check login button with correct username and password</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button</t>
+  </si>
+  <si>
+    <t>user dashboard should be properly opened with the user details</t>
+  </si>
+  <si>
+    <t>as per the expected result it is getting logged in but the user dashboard details are not show properly</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>check login button with blank username and blank password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name: 
+password: </t>
+  </si>
+  <si>
+    <t>to display the proper message</t>
+  </si>
+  <si>
+    <t>it is not showing the proper validation message</t>
+  </si>
+  <si>
+    <t>check login button with correct username and blank password</t>
+  </si>
+  <si>
+    <t>check login button with blank username and correct password</t>
+  </si>
+  <si>
+    <t>user name: 
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button with username having special characters and correct password</t>
+  </si>
+  <si>
+    <t>check login button with correct username and having special characters with password</t>
+  </si>
+  <si>
+    <t>check login button with username having special characters and password as blank</t>
+  </si>
+  <si>
+    <t>check login button with blank username and having special characters with password</t>
+  </si>
+  <si>
+    <t>user name: 
+password: secret_sauce@@</t>
+  </si>
+  <si>
+    <t>check login button with username having digit and correct password</t>
+  </si>
+  <si>
+    <t>check login button with correct user name and having digit with password</t>
+  </si>
+  <si>
+    <t>check login button with username having white space between them and correct password</t>
+  </si>
+  <si>
+    <t>check login button with correct username and white space between them in password</t>
+  </si>
+  <si>
+    <t>check login button with username having white space between them and password as blank</t>
+  </si>
+  <si>
+    <t>check login button with username as blank and white space between them in password</t>
+  </si>
+  <si>
+    <t>user name: 
+password: secret sauce</t>
+  </si>
+  <si>
+    <t>user name: performance_glitch_user
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name: performance_glitch_user
+password: </t>
+  </si>
+  <si>
+    <t>user name: performance_glitch_user@@
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>user name: performance_glitch_user
+password: secret_sauce@@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name: performance_glitch_user@@
+password: </t>
+  </si>
+  <si>
+    <t>user name: performance_glitch_user123
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>user name: performance_glitch_user
+password: secret_sauce123</t>
+  </si>
+  <si>
+    <t>user name: performance glitch user
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>user name: performance_glitch_user
+password: secret sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user name: performance glitch user
+password: </t>
+  </si>
+  <si>
+    <t>check side menu button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu</t>
+  </si>
+  <si>
+    <t>while clicking on the side menu button, it is working properly and also had opened</t>
+  </si>
+  <si>
+    <t>while clicking on side menu button it is working properly and also had opened</t>
+  </si>
+  <si>
+    <t>as per expected result</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on about</t>
+  </si>
+  <si>
+    <t>while clicking on side menu button it is working properly but clicking on about another website has opened</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on all items</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on logout button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on reset app state</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on close icon</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button 
+4) click on cart icon</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on continue shopping button</t>
+  </si>
+  <si>
+    <t>it is working properly and also had opened</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on checkout button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on checkout button
+6) click on continue button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on checkout button
+6) click on cancel button</t>
+  </si>
+  <si>
+    <t>same as 23 test case id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on dropdown menu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on dropdown menu
+5) check dropdown options
+</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on add to cart button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on add to cart button
+6) click on remove button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on back to product</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on image</t>
+  </si>
+  <si>
+    <t>same as 31 test case id</t>
+  </si>
+  <si>
+    <t>same as 32 test case id</t>
+  </si>
+  <si>
+    <t>same as 22 test case id</t>
+  </si>
+  <si>
+    <t>same 32 and 36 case id</t>
+  </si>
+  <si>
+    <t>same as 24 test case id</t>
+  </si>
+  <si>
+    <t>same as 25 test case id</t>
+  </si>
+  <si>
+    <t>same as 26 test case id</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on cart icon
+5) click on checkout button
+6) click on continue button
+7) click on finish button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on cart icon
+5) click on checkout button
+6) click on continue button
+7) click on finish button
+8) click on back to home button</t>
+  </si>
+  <si>
+    <t>same as 19 test case id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +617,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,6 +782,43 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -803,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -811,10 +1209,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -822,10 +1220,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -833,10 +1231,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -844,10 +1242,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -855,10 +1253,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -866,10 +1264,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -877,10 +1275,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -888,10 +1286,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,10 +1297,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -910,10 +1308,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -921,10 +1319,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -932,10 +1330,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -943,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -954,10 +1352,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -965,10 +1363,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -976,10 +1374,10 @@
         <v>30</v>
       </c>
       <c r="B19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -987,10 +1385,10 @@
         <v>31</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>33</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -998,10 +1396,10 @@
         <v>32</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1009,10 +1407,10 @@
         <v>33</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1020,10 +1418,10 @@
         <v>34</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1031,10 +1429,10 @@
         <v>35</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1042,10 +1440,10 @@
         <v>36</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1053,109 +1451,109 @@
         <v>37</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B30" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="39" t="s">
         <v>44</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="42" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1166,13 +1564,1419 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50">
+        <v>2</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="50">
+        <v>3</v>
+      </c>
+      <c r="B4" s="50">
+        <v>2</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50">
+        <v>2</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>5</v>
+      </c>
+      <c r="B6" s="50">
+        <v>2</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
+        <v>6</v>
+      </c>
+      <c r="B7" s="50">
+        <v>2</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
+        <v>7</v>
+      </c>
+      <c r="B8" s="50">
+        <v>2</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="50">
+        <v>8</v>
+      </c>
+      <c r="B9" s="50">
+        <v>2</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
+        <v>9</v>
+      </c>
+      <c r="B10" s="50">
+        <v>2</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>10</v>
+      </c>
+      <c r="B11" s="50">
+        <v>2</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>11</v>
+      </c>
+      <c r="B12" s="50">
+        <v>2</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="50">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50">
+        <v>2</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="50">
+        <v>13</v>
+      </c>
+      <c r="B14" s="50">
+        <v>2</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="50">
+        <v>14</v>
+      </c>
+      <c r="B15" s="50">
+        <v>2</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="50">
+        <v>15</v>
+      </c>
+      <c r="B16" s="50">
+        <v>2</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="33" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>16</v>
+      </c>
+      <c r="B17" s="43">
+        <v>3</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>18</v>
+      </c>
+      <c r="B19" s="48">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="33" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
+        <v>19</v>
+      </c>
+      <c r="B20" s="43">
+        <v>12</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>20</v>
+      </c>
+      <c r="B21" s="43">
+        <v>13</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>21</v>
+      </c>
+      <c r="B22" s="48">
+        <v>14</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>22</v>
+      </c>
+      <c r="B23" s="48">
+        <v>15</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <v>23</v>
+      </c>
+      <c r="B24" s="48">
+        <v>16</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <v>24</v>
+      </c>
+      <c r="B25" s="48">
+        <v>17</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
+        <v>25</v>
+      </c>
+      <c r="B26" s="55">
+        <v>18</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="48">
+        <v>26</v>
+      </c>
+      <c r="B27" s="55">
+        <v>19</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
+        <v>27</v>
+      </c>
+      <c r="B28" s="48">
+        <v>20</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>21</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>22</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>30</v>
+      </c>
+      <c r="B31" s="43">
+        <v>23</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="43">
+        <v>31</v>
+      </c>
+      <c r="B32" s="43">
+        <v>30</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="43">
+        <v>32</v>
+      </c>
+      <c r="B33" s="43">
+        <v>31</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="48">
+        <v>34</v>
+      </c>
+      <c r="B35" s="48">
+        <v>33</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="48">
+        <v>35</v>
+      </c>
+      <c r="B36" s="48">
+        <v>34</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A37" s="48">
+        <v>36</v>
+      </c>
+      <c r="B37" s="48">
+        <v>35</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="48">
+        <v>37</v>
+      </c>
+      <c r="B38" s="48">
+        <v>36</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="48">
+        <v>38</v>
+      </c>
+      <c r="B39" s="48">
+        <v>37</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="48">
+        <v>39</v>
+      </c>
+      <c r="B40" s="48">
+        <v>38</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="48">
+        <v>40</v>
+      </c>
+      <c r="B41" s="55">
+        <v>39</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="48">
+        <v>41</v>
+      </c>
+      <c r="B42" s="55">
+        <v>40</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="48">
+        <v>42</v>
+      </c>
+      <c r="B43" s="48">
+        <v>41</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="48">
+        <v>44</v>
+      </c>
+      <c r="B45" s="43">
+        <v>43</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="48">
+        <v>45</v>
+      </c>
+      <c r="B46" s="43">
+        <v>44</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="48">
+        <v>46</v>
+      </c>
+      <c r="B47" s="43">
+        <v>45</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="48">
+        <v>46</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
